--- a/LSM-handCALC.xlsx
+++ b/LSM-handCALC.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Tex\LecNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71491F7C-083B-4C48-A4FA-84E3C329F89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B2151-0C6E-46D3-A330-486AD28BE0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42370" yWindow="2410" windowWidth="24990" windowHeight="13940" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10570" yWindow="2480" windowWidth="22630" windowHeight="15720" xr2:uid="{8F692AAD-9E53-416A-BFBA-A251C33399E7}"/>
   </bookViews>
   <sheets>
     <sheet name="LSM" sheetId="47" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>a</t>
     <phoneticPr fontId="2"/>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1yr DF</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ITM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -97,21 +89,6 @@
     </r>
     <rPh sb="6" eb="8">
       <t>トウショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>行使価格</t>
-    </r>
-    <rPh sb="0" eb="4">
-      <t>コウシカカク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -217,21 +194,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>株価</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>カブカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -299,28 +261,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">C26:E26 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ｌ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>inest(B17:B24,C17:D24)</t>
-    </r>
-  </si>
-  <si>
     <t>各シナリオの株価推移</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -359,6 +299,233 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>株価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ITM Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> D22:F22 =LINEST(C16:C20,D16:E20)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時点1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LS)</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時点1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>反映の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>行使価値</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Putオプション </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行使価格:</t>
+    <rPh sb="0" eb="4">
+      <t>コウシカカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年金利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MS"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -366,16 +533,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.00000_ "/>
-    <numFmt numFmtId="183" formatCode="0.000%"/>
-    <numFmt numFmtId="185" formatCode="0.0000_ "/>
-    <numFmt numFmtId="197" formatCode="0.000_ "/>
-    <numFmt numFmtId="199" formatCode="0_ "/>
-    <numFmt numFmtId="211" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="#,##0.000_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,12 +731,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -601,8 +762,26 @@
       <name val="Arial MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial MS"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,8 +940,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -967,8 +1182,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1108,9 +1376,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,125 +1383,164 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="29" fillId="0" borderId="17" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="29" fillId="0" borderId="12" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="29" fillId="25" borderId="12" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="29" fillId="0" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="29" fillId="26" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="25" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="29" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="29" fillId="26" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="29" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="50" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="29" fillId="26" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="29" fillId="25" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="29" fillId="27" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="29" fillId="0" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="29" fillId="2" borderId="0" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="184" fontId="29" fillId="28" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="29" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="184" fontId="29" fillId="26" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="197" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="199" fontId="30" fillId="0" borderId="17" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="29" fillId="25" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="30" fillId="0" borderId="12" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="30" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="32" fillId="25" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="30" fillId="25" borderId="12" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="29" fillId="31" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="177" fontId="29" fillId="32" borderId="18" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="19" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="32" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="2" borderId="15" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="30" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="21" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="22" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="30" fillId="0" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="30" fillId="26" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="197" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="29" fillId="34" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="29" fillId="2" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="19" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="29" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="29" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="29" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="29" fillId="2" borderId="22" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="29" fillId="35" borderId="12" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="35" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="197" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="197" fontId="30" fillId="25" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="211" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="211" fontId="30" fillId="26" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="29" fillId="35" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="32" fillId="35" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="50" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="199" fontId="30" fillId="26" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="29" fillId="35" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="30" fillId="25" borderId="16" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="29" fillId="36" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="199" fontId="30" fillId="27" borderId="14" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="29" fillId="36" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="50" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="25" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="13" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="12" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="197" fontId="30" fillId="2" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="30" fillId="2" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="211" fontId="30" fillId="28" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="199" fontId="30" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="211" fontId="30" fillId="26" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="30" fillId="25" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="30" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="53">
     <cellStyle name="20% - アクセント 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - アクセント 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - アクセント 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1260,7 +1564,7 @@
     <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="Normal 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Percent 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="アクセント 1" xfId="28" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="アクセント 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="アクセント 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
@@ -1289,8 +1593,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="標準_BGM Market data June01 10" xfId="50" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="標準_Intrinsic Value P238_lmm explain May22 2011" xfId="51" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="良い" xfId="52" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="良い" xfId="51" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,9 +1612,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1377950" cy="196850"/>
@@ -1330,7 +1633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3194050" y="3575051"/>
+          <a:off x="1276350" y="3887259"/>
           <a:ext cx="1377950" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1394,23 +1697,219 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>306160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Freeform 3">
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{701438BF-E3A0-11EC-1D6E-0BB1A9902C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852333" y="3921125"/>
+          <a:ext cx="2905125" cy="650875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>行使価値編集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>時点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>３</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>4,6,7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>の行使価値をゼロ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>時点２の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>14,6,7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の行使価値をゼロ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259292</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449792</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フリーフォーム: 図形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D099EC-FA04-D556-9D7A-07937A05A767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,18 +1917,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1519010" y="1638299"/>
-          <a:ext cx="1649639" cy="599621"/>
+          <a:off x="4079875" y="3381375"/>
+          <a:ext cx="190500" cy="582083"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 1108982 w 1108982"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 680357"/>
-            <a:gd name="connsiteX1" fmla="*/ 231321 w 1108982"/>
-            <a:gd name="connsiteY1" fmla="*/ 306161 h 680357"/>
-            <a:gd name="connsiteX2" fmla="*/ 0 w 1108982"/>
-            <a:gd name="connsiteY2" fmla="*/ 680357 h 680357"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 195792"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 529166"/>
+            <a:gd name="connsiteX1" fmla="*/ 52917 w 195792"/>
+            <a:gd name="connsiteY1" fmla="*/ 328083 h 529166"/>
+            <a:gd name="connsiteX2" fmla="*/ 195792 w 195792"/>
+            <a:gd name="connsiteY2" fmla="*/ 529166 h 529166"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -1445,19 +1944,19 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1108982" h="680357">
+            <a:path w="195792" h="529166">
               <a:moveTo>
-                <a:pt x="1108982" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="762566" y="96384"/>
-                <a:pt x="416151" y="192768"/>
-                <a:pt x="231321" y="306161"/>
+                <a:pt x="10142" y="119944"/>
+                <a:pt x="20285" y="239889"/>
+                <a:pt x="52917" y="328083"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="46491" y="419554"/>
-                <a:pt x="23245" y="549955"/>
-                <a:pt x="0" y="680357"/>
+                <a:pt x="85549" y="416277"/>
+                <a:pt x="140670" y="472721"/>
+                <a:pt x="195792" y="529166"/>
               </a:cubicBezTo>
             </a:path>
           </a:pathLst>
@@ -1465,17 +1964,18 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -1493,7 +1993,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1501,23 +2001,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209005</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>102054</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
+      <xdr:colOff>119492</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Freeform 4">
+        <xdr:cNvPr id="7" name="フリーフォーム: 図形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A79BC7A-74C9-4789-1CAE-8D891C525DCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,18 +2025,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="894805" y="314328"/>
-          <a:ext cx="6751049" cy="2057400"/>
+          <a:off x="5826125" y="3725333"/>
+          <a:ext cx="336450" cy="396875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 5499192 w 5499192"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 2054679"/>
-            <a:gd name="connsiteX1" fmla="*/ 852352 w 5499192"/>
-            <a:gd name="connsiteY1" fmla="*/ 748393 h 2054679"/>
-            <a:gd name="connsiteX2" fmla="*/ 15513 w 5499192"/>
-            <a:gd name="connsiteY2" fmla="*/ 2054679 h 2054679"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 336450"/>
+            <a:gd name="connsiteY0" fmla="*/ 396875 h 396875"/>
+            <a:gd name="connsiteX1" fmla="*/ 306917 w 336450"/>
+            <a:gd name="connsiteY1" fmla="*/ 248709 h 396875"/>
+            <a:gd name="connsiteX2" fmla="*/ 306917 w 336450"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 396875"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -1552,32 +2052,38 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="5499192" h="2054679">
+            <a:path w="336450" h="396875">
               <a:moveTo>
-                <a:pt x="5499192" y="0"/>
+                <a:pt x="0" y="396875"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="3632745" y="202973"/>
-                <a:pt x="1766298" y="405947"/>
-                <a:pt x="852352" y="748393"/>
+                <a:pt x="127882" y="355865"/>
+                <a:pt x="255764" y="314855"/>
+                <a:pt x="306917" y="248709"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="-61594" y="1090839"/>
-                <a:pt x="-23041" y="1572759"/>
-                <a:pt x="15513" y="2054679"/>
+                <a:pt x="358070" y="182563"/>
+                <a:pt x="332493" y="91281"/>
+                <a:pt x="306917" y="0"/>
               </a:cubicBezTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -1595,7 +2101,288 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1377950" cy="196850"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D317E528-8365-44FF-8B9E-C18901F6484C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1276350" y="3728509"/>
+          <a:ext cx="1377950" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="00FFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="18288" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>（ Y = c X^2 + b X + a ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137583</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127AE102-DE3A-47D7-9B0B-C1EC3C4751FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852333" y="3762375"/>
+          <a:ext cx="2905125" cy="650875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>行使価値編集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>時点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>4,6,7,8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>の行使価値をゼロ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>時点１の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>パス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4,6,7,8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の行使価値をゼロ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1603,23 +2390,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259292</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>74084</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>153458</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449792</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フリーフォーム: 図形 7">
+        <xdr:cNvPr id="11" name="フリーフォーム: 図形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4C1CA3-95F6-9D61-0962-05FFC2286E8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73AA8EC9-441C-4190-BA0F-8E5617D455A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,18 +2414,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="349250" y="756708"/>
-          <a:ext cx="4164542" cy="1825625"/>
+          <a:off x="4079875" y="3222625"/>
+          <a:ext cx="190500" cy="582083"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 4164542 w 4164542"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1825625"/>
-            <a:gd name="connsiteX1" fmla="*/ 1111250 w 4164542"/>
-            <a:gd name="connsiteY1" fmla="*/ 693209 h 1825625"/>
-            <a:gd name="connsiteX2" fmla="*/ 0 w 4164542"/>
-            <a:gd name="connsiteY2" fmla="*/ 1825625 h 1825625"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 195792"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 529166"/>
+            <a:gd name="connsiteX1" fmla="*/ 52917 w 195792"/>
+            <a:gd name="connsiteY1" fmla="*/ 328083 h 529166"/>
+            <a:gd name="connsiteX2" fmla="*/ 195792 w 195792"/>
+            <a:gd name="connsiteY2" fmla="*/ 529166 h 529166"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -1654,19 +2441,19 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="4164542" h="1825625">
+            <a:path w="195792" h="529166">
               <a:moveTo>
-                <a:pt x="4164542" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="2984941" y="194469"/>
-                <a:pt x="1805340" y="388938"/>
-                <a:pt x="1111250" y="693209"/>
+                <a:pt x="10142" y="119944"/>
+                <a:pt x="20285" y="239889"/>
+                <a:pt x="52917" y="328083"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="417160" y="997480"/>
-                <a:pt x="208580" y="1411552"/>
-                <a:pt x="0" y="1825625"/>
+                <a:pt x="85549" y="416277"/>
+                <a:pt x="140670" y="472721"/>
+                <a:pt x="195792" y="529166"/>
               </a:cubicBezTo>
             </a:path>
           </a:pathLst>
@@ -1674,12 +2461,517 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34828</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フリーフォーム: 図形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB70D696-2B3A-403A-BA10-F758E1E53CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5164670" y="6455833"/>
+          <a:ext cx="336450" cy="396875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 336450"/>
+            <a:gd name="connsiteY0" fmla="*/ 396875 h 396875"/>
+            <a:gd name="connsiteX1" fmla="*/ 306917 w 336450"/>
+            <a:gd name="connsiteY1" fmla="*/ 248709 h 396875"/>
+            <a:gd name="connsiteX2" fmla="*/ 306917 w 336450"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 396875"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="336450" h="396875">
+              <a:moveTo>
+                <a:pt x="0" y="396875"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="127882" y="355865"/>
+                <a:pt x="255764" y="314855"/>
+                <a:pt x="306917" y="248709"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="358070" y="182563"/>
+                <a:pt x="332493" y="91281"/>
+                <a:pt x="306917" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68792</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2288679E-A79F-6242-B1AF-53C77FAAD6C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2550585"/>
+          <a:ext cx="476250" cy="534458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>時点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200"/>
+            <a:t>ITM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>パス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78317</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>147109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F42264-3164-462A-8B98-CF03443DABD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="5407026"/>
+          <a:ext cx="476250" cy="534458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>時点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200"/>
+            <a:t>ITM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>パス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449791</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フリーフォーム: 図形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B30CDA-2465-5580-A318-447A56A91D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1042458" y="1613958"/>
+          <a:ext cx="5000625" cy="470959"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 5000625 w 5000625"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 470959"/>
+            <a:gd name="connsiteX1" fmla="*/ 4069292 w 5000625"/>
+            <a:gd name="connsiteY1" fmla="*/ 243417 h 470959"/>
+            <a:gd name="connsiteX2" fmla="*/ 1497542 w 5000625"/>
+            <a:gd name="connsiteY2" fmla="*/ 58209 h 470959"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 5000625"/>
+            <a:gd name="connsiteY3" fmla="*/ 470959 h 470959"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5000625" h="470959">
+              <a:moveTo>
+                <a:pt x="5000625" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="4826882" y="116858"/>
+                <a:pt x="4653139" y="233716"/>
+                <a:pt x="4069292" y="243417"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3485445" y="253118"/>
+                <a:pt x="2175757" y="20285"/>
+                <a:pt x="1497542" y="58209"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="819327" y="96133"/>
+                <a:pt x="409663" y="283546"/>
+                <a:pt x="0" y="470959"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>513291</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185208</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フリーフォーム: 図形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F80943-741A-E726-795C-5ECEB1014E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1105958" y="3506428"/>
+          <a:ext cx="4545542" cy="1462447"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 4545542 w 4545542"/>
+            <a:gd name="connsiteY0" fmla="*/ 1947 h 1462447"/>
+            <a:gd name="connsiteX1" fmla="*/ 2386542 w 4545542"/>
+            <a:gd name="connsiteY1" fmla="*/ 107780 h 1462447"/>
+            <a:gd name="connsiteX2" fmla="*/ 650875 w 4545542"/>
+            <a:gd name="connsiteY2" fmla="*/ 695155 h 1462447"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 4545542"/>
+            <a:gd name="connsiteY3" fmla="*/ 1462447 h 1462447"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4545542" h="1462447">
+              <a:moveTo>
+                <a:pt x="4545542" y="1947"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="3790597" y="-2904"/>
+                <a:pt x="3035653" y="-7755"/>
+                <a:pt x="2386542" y="107780"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1737431" y="223315"/>
+                <a:pt x="1048632" y="469377"/>
+                <a:pt x="650875" y="695155"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="253118" y="920933"/>
+                <a:pt x="126559" y="1191690"/>
+                <a:pt x="0" y="1462447"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2047,7 +3339,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100" kern="1200"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -2055,7 +3384,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -3338,32 +4667,29 @@
     <col min="16161" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" thickBot="1">
+    <row r="1" spans="1:15" ht="13" thickBot="1">
       <c r="D1" s="2"/>
-      <c r="E1" s="44" t="s">
-        <v>17</v>
+      <c r="E1" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="13" thickBot="1">
-      <c r="A2" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.1000000000000001</v>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="13" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="67">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -3372,7 +4698,7 @@
       <c r="H2" s="10">
         <v>3</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="36"/>
       <c r="K2" s="7">
         <v>1</v>
       </c>
@@ -3383,13 +4709,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1">
-      <c r="A3" s="48" t="s">
-        <v>4</v>
+    <row r="3" spans="1:15" s="5" customFormat="1">
+      <c r="A3" s="66" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="6">
-        <f>EXP(-0.06)</f>
-        <v>0.94176453358424872</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3397,44 +4722,49 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="68">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>1.08</v>
       </c>
       <c r="H3" s="12">
         <v>1.34</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="43">
+      <c r="J3" s="34">
         <v>1</v>
       </c>
-      <c r="K3" s="15">
-        <f t="shared" ref="K3:K9" si="0">IF(F3-$C$2&gt;0,0,$C$2-F3)</f>
+      <c r="K3" s="14">
+        <f>MAX($C$3-F3,0)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="L3" s="42">
-        <f t="shared" ref="L3:L9" si="1">IF(G3-$C$2&gt;0,0,$C$2-G3)</f>
+      <c r="L3" s="33">
+        <f>MAX($C$3-G3,0)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="M3" s="16">
-        <f>IF(H3-$C$2&gt;0,0,$C$2-H3)</f>
+      <c r="M3" s="15">
+        <f>MAX($C$3-H3,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="C4" s="17"/>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0.06</v>
+      </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="68">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>1.26</v>
       </c>
       <c r="H4" s="12">
@@ -3444,99 +4774,109 @@
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="15">
-        <f t="shared" si="0"/>
+      <c r="K4" s="14">
+        <f>MAX($C$3-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="15">
-        <f t="shared" si="1"/>
+      <c r="L4" s="14">
+        <f>MAX($C$3-G4,0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="16">
-        <f>IF(H4-$C$2&gt;0,0,$C$2-H4)</f>
+      <c r="M4" s="15">
+        <f>MAX($C$3-H4,0)</f>
         <v>0</v>
       </c>
+      <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="C5" s="17"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
+        <f>EXP(-C4)</f>
+        <v>0.94176453358424872</v>
+      </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="68">
         <v>1.22</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>1.07</v>
       </c>
       <c r="H5" s="12">
         <v>1.03</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="43">
+      <c r="J5" s="34">
         <v>3</v>
       </c>
-      <c r="K5" s="15">
-        <f t="shared" si="0"/>
+      <c r="K5" s="14">
+        <f>MAX($C$3-F5,0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="42">
-        <f t="shared" si="1"/>
+      <c r="L5" s="33">
+        <f>MAX($C$3-G5,0)</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="M5" s="16">
-        <f>IF(H5-$C$2&gt;0,0,$C$2-H5)</f>
+      <c r="M5" s="15">
+        <f>MAX($C$3-H5,0)</f>
         <v>7.0000000000000062E-2</v>
       </c>
+      <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="C6" s="17"/>
+    <row r="6" spans="1:15">
+      <c r="C6" s="16"/>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="68">
         <v>0.93</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.97</v>
       </c>
       <c r="H6" s="12">
         <v>0.92</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="43">
+      <c r="J6" s="34">
         <v>4</v>
       </c>
-      <c r="K6" s="15">
-        <f t="shared" si="0"/>
+      <c r="K6" s="14">
+        <f>MAX($C$3-F6,0)</f>
         <v>0.17000000000000004</v>
       </c>
-      <c r="L6" s="42">
-        <f t="shared" si="1"/>
+      <c r="L6" s="33">
+        <f>MAX($C$3-G6,0)</f>
         <v>0.13000000000000012</v>
       </c>
-      <c r="M6" s="16">
-        <f>IF(H6-$C$2&gt;0,0,$C$2-H6)</f>
+      <c r="M6" s="15">
+        <f>MAX($C$3-H6,0)</f>
         <v>0.18000000000000005</v>
       </c>
+      <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="C7" s="17"/>
+    <row r="7" spans="1:15">
+      <c r="C7" s="16"/>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="68">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>1.56</v>
       </c>
       <c r="H7" s="12">
@@ -3546,99 +4886,102 @@
       <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="K7" s="15">
-        <f t="shared" si="0"/>
+      <c r="K7" s="14">
+        <f>MAX($C$3-F7,0)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="15">
-        <f t="shared" si="1"/>
+      <c r="L7" s="14">
+        <f>MAX($C$3-G7,0)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="16">
-        <f>IF(H7-$C$2&gt;0,0,$C$2-H7)</f>
+      <c r="M7" s="15">
+        <f>MAX($C$3-H7,0)</f>
         <v>0</v>
       </c>
+      <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="C8" s="17"/>
+    <row r="8" spans="1:15">
+      <c r="C8" s="16"/>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="68">
         <v>0.76</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.77</v>
       </c>
       <c r="H8" s="12">
         <v>0.9</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="43">
+      <c r="J8" s="34">
         <v>6</v>
       </c>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
+      <c r="K8" s="14">
+        <f>MAX($C$3-F8,0)</f>
         <v>0.34000000000000008</v>
       </c>
-      <c r="L8" s="42">
-        <f t="shared" si="1"/>
+      <c r="L8" s="33">
+        <f>MAX($C$3-G8,0)</f>
         <v>0.33000000000000007</v>
       </c>
-      <c r="M8" s="16">
-        <f>IF(H8-$C$2&gt;0,0,$C$2-H8)</f>
+      <c r="M8" s="15">
+        <f>MAX($C$3-H8,0)</f>
         <v>0.20000000000000007</v>
       </c>
+      <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="17"/>
+    <row r="9" spans="1:15">
+      <c r="C9" s="16"/>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="68">
         <v>0.92</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.84</v>
       </c>
       <c r="H9" s="12">
         <v>1.01</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="43">
+      <c r="J9" s="34">
         <v>7</v>
       </c>
-      <c r="K9" s="15">
-        <f t="shared" si="0"/>
+      <c r="K9" s="14">
+        <f>MAX($C$3-F9,0)</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="L9" s="42">
-        <f t="shared" si="1"/>
+      <c r="L9" s="33">
+        <f>MAX($C$3-G9,0)</f>
         <v>0.26000000000000012</v>
       </c>
-      <c r="M9" s="16">
-        <f>IF(H9-$C$2&gt;0,0,$C$2-H9)</f>
+      <c r="M9" s="15">
+        <f>MAX($C$3-H9,0)</f>
         <v>9.000000000000008E-2</v>
       </c>
+      <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1">
-      <c r="C10" s="17"/>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1">
+      <c r="C10" s="16"/>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="68">
         <v>0.88</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>1.22</v>
       </c>
       <c r="H10" s="12">
@@ -3648,369 +4991,707 @@
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="15">
-        <f>IF(F10-$C$2&gt;0,0,$C$2-F10)</f>
+      <c r="K10" s="14">
+        <f>MAX($C$3-F10,0)</f>
         <v>0.22000000000000008</v>
       </c>
-      <c r="L10" s="15">
-        <f>IF(G10-$C$2&gt;0,0,$C$2-G10)</f>
+      <c r="L10" s="14">
+        <f>MAX($C$3-G10,0)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="16">
-        <f>IF(H10-$C$2&gt;0,0,$C$2-H10)</f>
+      <c r="M10" s="15">
+        <f>MAX($C$3-H10,0)</f>
         <v>0</v>
       </c>
+      <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1">
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+    <row r="11" spans="1:15" ht="13">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="13">
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+    <row r="12" spans="1:15">
+      <c r="K12" s="19"/>
+      <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="K13" s="22"/>
+    <row r="13" spans="1:15" ht="13" thickBot="1">
+      <c r="A13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="13" thickBot="1">
-      <c r="A14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="23" t="s">
+    <row r="14" spans="1:15" ht="13" thickBot="1">
+      <c r="C14" s="21">
+        <v>3</v>
+      </c>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="23">
+        <v>2</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="K14" s="54">
+        <v>1</v>
+      </c>
+      <c r="L14" s="55">
+        <v>2</v>
+      </c>
+      <c r="M14" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="13" thickBot="1">
+      <c r="C15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="43">
+        <v>1</v>
+      </c>
+      <c r="K15" s="57">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" ht="13" thickBot="1">
-      <c r="C15" s="24">
-        <v>3</v>
-      </c>
-      <c r="D15" s="25">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="26">
-        <v>2</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="K15" s="28">
+    <row r="16" spans="1:15">
+      <c r="B16" s="34">
         <v>1</v>
       </c>
-      <c r="L15" s="29">
-        <v>2</v>
-      </c>
-      <c r="M15" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="13" thickBot="1">
-      <c r="C16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="35">
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="L16" s="35">
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="M16" s="35">
+      <c r="C16" s="38">
+        <f>M3*$C$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="43">
-        <v>1</v>
-      </c>
-      <c r="C17" s="49">
-        <f>M3*$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="50">
+      <c r="D16" s="39">
         <f>G3</f>
         <v>1.08</v>
       </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17:E21" si="2">D17^2</f>
+      <c r="E16" s="16">
+        <f t="shared" ref="E16:E20" si="0">D16^2</f>
         <v>1.1664000000000001</v>
       </c>
-      <c r="F17" s="17">
-        <f>$F$23+$E$23*D17+$D$23*E17</f>
+      <c r="F16" s="16">
+        <f>$F$22+$E$22*D16+$D$22*E16</f>
         <v>3.6740560851208137E-2</v>
       </c>
-      <c r="G17" s="36">
-        <f>$C$2-D17</f>
+      <c r="G16" s="29">
+        <f>$C$3-D16</f>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="H16" s="5" t="str">
+        <f>IF(G16&gt;F16,"○","-")</f>
+        <v>-</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="47">
+        <v>0</v>
+      </c>
+      <c r="M16" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="34">
+        <v>3</v>
+      </c>
+      <c r="C17" s="38">
+        <f>M5*$C$5</f>
+        <v>6.5923517350897465E-2</v>
+      </c>
+      <c r="D17" s="39">
+        <f>G5</f>
+        <v>1.07</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1449</v>
+      </c>
+      <c r="F17" s="16">
+        <f>$F$22+$E$22*D17+$D$22*E17</f>
+        <v>4.5898342525892311E-2</v>
+      </c>
+      <c r="G17" s="29">
+        <f>$C$3-D17</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
       <c r="H17" s="5" t="str">
-        <f>IF(G17&gt;F17,"○","-")</f>
+        <f t="shared" ref="H17:H20" si="1">IF(G17&gt;F17,"○","-")</f>
         <v>-</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="35">
+        <v>3</v>
+      </c>
+      <c r="K17" s="28">
         <v>0</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="49">
         <v>0</v>
       </c>
-      <c r="M17" s="35">
-        <v>0</v>
+      <c r="M17" s="48">
+        <v>7.0000000000000062E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="43">
-        <v>3</v>
-      </c>
-      <c r="C18" s="49">
-        <f>M5*$C$3</f>
-        <v>6.5923517350897465E-2</v>
-      </c>
-      <c r="D18" s="50">
-        <f>G5</f>
-        <v>1.07</v>
-      </c>
-      <c r="E18" s="17">
-        <f t="shared" si="2"/>
-        <v>1.1449</v>
-      </c>
-      <c r="F18" s="17">
-        <f>$F$23+$E$23*D18+$D$23*E18</f>
-        <v>4.5898342525892311E-2</v>
-      </c>
-      <c r="G18" s="36">
-        <f t="shared" ref="G18:G21" si="3">$C$2-D18</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" ref="H18:H21" si="4">IF(G18&gt;F18,"○","-")</f>
-        <v>-</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="35">
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="M18" s="35">
-        <v>7.0000000000000062E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="43">
+    <row r="18" spans="1:15">
+      <c r="B18" s="34">
         <v>4</v>
       </c>
-      <c r="C19" s="49">
-        <f>M6*$C$3</f>
+      <c r="C18" s="38">
+        <f>M6*$C$5</f>
         <v>0.16951761604516483</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D18" s="39">
         <f>G6</f>
         <v>0.97</v>
       </c>
-      <c r="E19" s="17">
-        <f t="shared" si="2"/>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
         <v>0.94089999999999996</v>
       </c>
-      <c r="F19" s="17">
-        <f>$F$23+$E$23*D19+$D$23*E19</f>
+      <c r="F18" s="16">
+        <f>$F$22+$E$22*D18+$D$22*E18</f>
         <v>0.11752682126037528</v>
       </c>
-      <c r="G19" s="36">
-        <f t="shared" si="3"/>
+      <c r="G18" s="29">
+        <f>$C$3-D18</f>
         <v>0.13000000000000012</v>
       </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>○</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="43">
+        <v>4</v>
+      </c>
+      <c r="K18" s="57">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="L18" s="50">
+        <v>0.13000000000000012</v>
+      </c>
+      <c r="M18" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="34">
+        <v>6</v>
+      </c>
+      <c r="C19" s="38">
+        <f>M8*$C$5</f>
+        <v>0.18835290671684982</v>
+      </c>
+      <c r="D19" s="39">
+        <f>G8</f>
+        <v>0.77</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <f>$F$22+$E$22*D19+$D$22*E19</f>
+        <v>0.15196920775279432</v>
+      </c>
+      <c r="G19" s="29">
+        <f>$C$3-D19</f>
+        <v>0.33000000000000007</v>
+      </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>○</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="35">
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="L19" s="37">
-        <v>0.13000000000000012</v>
-      </c>
-      <c r="M19" s="51">
+        <v>5</v>
+      </c>
+      <c r="K19" s="28">
         <v>0</v>
       </c>
+      <c r="L19" s="47">
+        <v>0</v>
+      </c>
+      <c r="M19" s="48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="43">
-        <v>6</v>
-      </c>
-      <c r="C20" s="49">
-        <f>M8*$C$3</f>
-        <v>0.18835290671684982</v>
-      </c>
-      <c r="D20" s="50">
-        <f>G8</f>
-        <v>0.77</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="2"/>
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="F20" s="17">
-        <f>$F$23+$E$23*D20+$D$23*E20</f>
-        <v>0.15196920775279432</v>
-      </c>
-      <c r="G20" s="36">
-        <f t="shared" si="3"/>
-        <v>0.33000000000000007</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>○</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="1">
-        <v>5</v>
-      </c>
-      <c r="K20" s="35">
-        <v>0</v>
-      </c>
-      <c r="L20" s="35">
-        <v>0</v>
-      </c>
-      <c r="M20" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="43">
+    <row r="20" spans="1:15">
+      <c r="B20" s="34">
         <v>7</v>
       </c>
-      <c r="C21" s="49">
-        <f>M9*$C$3</f>
+      <c r="C20" s="38">
+        <f>M9*$C$5</f>
         <v>8.4758808022582455E-2</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D20" s="39">
         <f>G9</f>
         <v>0.84</v>
       </c>
-      <c r="E21" s="17">
-        <f t="shared" si="2"/>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
         <v>0.70559999999999989</v>
       </c>
-      <c r="F21" s="17">
-        <f>$F$23+$E$23*D21+$D$23*E21</f>
+      <c r="F20" s="16">
+        <f>$F$22+$E$22*D20+$D$22*E20</f>
         <v>0.1564179157452239</v>
       </c>
-      <c r="G21" s="36">
-        <f t="shared" si="3"/>
+      <c r="G20" s="29">
+        <f>$C$3-D20</f>
         <v>0.26000000000000012</v>
       </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>○</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="1">
+      <c r="I20" s="5"/>
+      <c r="J20" s="43">
         <v>6</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K20" s="57">
         <v>0.34000000000000008</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L20" s="50">
         <v>0.33000000000000007</v>
+      </c>
+      <c r="M20" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="13" thickBot="1">
+      <c r="C21" s="30"/>
+      <c r="D21" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="43">
+        <v>7</v>
+      </c>
+      <c r="K21" s="57">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0.26000000000000012</v>
       </c>
       <c r="M21" s="51">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="13" thickBot="1">
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+    <row r="22" spans="1:15" ht="13" thickBot="1">
+      <c r="C22" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="array" ref="D22:F22">LINEST(C16:C20,D16:E20)</f>
+        <v>-1.8135761829424299</v>
+      </c>
+      <c r="E22" s="42">
+        <v>2.9834106258577315</v>
+      </c>
+      <c r="F22" s="42">
+        <v>-1.0699876552910921</v>
+      </c>
+      <c r="J22" s="43">
+        <v>8</v>
+      </c>
+      <c r="K22" s="57">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="L22" s="52">
+        <v>0</v>
+      </c>
+      <c r="M22" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="D23" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="K30" s="19"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" ht="13" thickBot="1">
+      <c r="A31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" ht="13" thickBot="1">
+      <c r="C32" s="72">
         <v>2</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="D32" s="69">
         <v>1</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="23">
+        <v>1</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="K32" s="54">
+        <v>1</v>
+      </c>
+      <c r="L32" s="55">
+        <v>2</v>
+      </c>
+      <c r="M32" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="13" thickBot="1">
+      <c r="C33" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="61">
         <v>0</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="1">
+      <c r="L33" s="59">
+        <v>0</v>
+      </c>
+      <c r="M33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="74">
+        <f>L15*$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="71">
+        <f>F3</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" ref="E34:E38" si="2">D34^2</f>
+        <v>1.1881000000000002</v>
+      </c>
+      <c r="F34" s="16">
+        <f>$F$22+$E$22*D34+$D$22*E34</f>
+        <v>2.722006393993448E-2</v>
+      </c>
+      <c r="G34" s="29">
+        <f>$C$3-D34</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>IF(G34&gt;F34,"○","-")</f>
+        <v>-</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="62">
+        <v>0</v>
+      </c>
+      <c r="L34" s="48">
+        <v>0</v>
+      </c>
+      <c r="M34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="34">
+        <v>4</v>
+      </c>
+      <c r="C35" s="74">
+        <f>L18*$C$5</f>
+        <v>0.12242938936595245</v>
+      </c>
+      <c r="D35" s="71">
+        <f>F6</f>
+        <v>0.93</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="2"/>
+        <v>0.86490000000000011</v>
+      </c>
+      <c r="F35" s="16">
+        <f>$F$22+$E$22*D35+$D$22*E35</f>
+        <v>0.13602218612969041</v>
+      </c>
+      <c r="G35" s="29">
+        <f>$C$3-D35</f>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" ref="H35:H38" si="3">IF(G35&gt;F35,"○","-")</f>
+        <v>○</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="62">
+        <v>0</v>
+      </c>
+      <c r="L35" s="60">
+        <v>0</v>
+      </c>
+      <c r="M35" s="28">
+        <v>7.0000000000000062E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="34">
+        <v>6</v>
+      </c>
+      <c r="C36" s="74">
+        <f>L20*$C$5</f>
+        <v>0.31078229608280217</v>
+      </c>
+      <c r="D36" s="71">
+        <f>F8</f>
+        <v>0.76</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5776</v>
+      </c>
+      <c r="F36" s="16">
+        <f>$F$22+$E$22*D36+$D$22*E36</f>
+        <v>0.14988281709323625</v>
+      </c>
+      <c r="G36" s="29">
+        <f>$C$3-D36</f>
+        <v>0.34000000000000008</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="62">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="L36" s="58">
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="34">
         <v>7</v>
       </c>
-      <c r="K22" s="35">
+      <c r="C37" s="74">
+        <f>L21*$C$5</f>
+        <v>0.24485877873190479</v>
+      </c>
+      <c r="D37" s="71">
+        <f t="shared" ref="D37:D38" si="4">F9</f>
+        <v>0.92</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="2"/>
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="F37" s="16">
+        <f>$F$22+$E$22*D37+$D$22*E37</f>
+        <v>0.13973923925554832</v>
+      </c>
+      <c r="G37" s="29">
+        <f>$C$3-D37</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="L22" s="37">
-        <v>0.26000000000000012</v>
-      </c>
-      <c r="M22" s="51">
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+      <c r="K37" s="62">
         <v>0</v>
       </c>
+      <c r="L37" s="48">
+        <v>0</v>
+      </c>
+      <c r="M37" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:13">
-      <c r="C23" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="41">
-        <f t="array" ref="D23:F23">LINEST(C17:C21,D17:E21)</f>
-        <v>-1.8135761829424299</v>
-      </c>
-      <c r="E23" s="41">
-        <v>2.9834106258577315</v>
-      </c>
-      <c r="F23" s="41">
-        <v>-1.0699876552910921</v>
-      </c>
-      <c r="J23" s="1">
+    <row r="38" spans="2:13">
+      <c r="B38" s="34">
         <v>8</v>
       </c>
-      <c r="K23" s="35">
+      <c r="C38" s="74">
+        <f>L22*$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="71">
+        <f t="shared" si="4"/>
+        <v>0.88</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="2"/>
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="F38" s="16">
+        <f>$F$22+$E$22*D38+$D$22*E38</f>
+        <v>0.15098029939309421</v>
+      </c>
+      <c r="G38" s="29">
+        <f>$C$3-D38</f>
         <v>0.22000000000000008</v>
       </c>
-      <c r="L23" s="35">
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>○</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="1">
+        <v>6</v>
+      </c>
+      <c r="K38" s="62">
+        <v>0.34000000000000008</v>
+      </c>
+      <c r="L38" s="58">
         <v>0</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M38" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
-      <c r="D24" s="22" t="s">
+    <row r="39" spans="2:13" ht="13" thickBot="1">
+      <c r="C39" s="30"/>
+      <c r="D39" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="1">
+        <v>7</v>
+      </c>
+      <c r="K39" s="62">
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="L39" s="58">
+        <v>0</v>
+      </c>
+      <c r="M39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="13" thickBot="1">
+      <c r="C40" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="42">
+        <f t="array" ref="D40:F40">LINEST(C34:C38,D34:E38)</f>
+        <v>1.3564565881048876</v>
+      </c>
+      <c r="E40" s="42">
+        <v>-3.3354434031412037</v>
+      </c>
+      <c r="F40" s="42">
+        <v>2.0375123423796508</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8</v>
+      </c>
+      <c r="K40" s="63">
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="L40" s="64">
+        <v>0</v>
+      </c>
+      <c r="M40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="D41" s="19" t="s">
         <v>16</v>
       </c>
     </row>

--- a/LSM-handCALC.xlsx
+++ b/LSM-handCALC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Tex\LecNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B2151-0C6E-46D3-A330-486AD28BE0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDBD3D5-B21A-42E0-855F-D3ED2BC537B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10570" yWindow="2480" windowWidth="22630" windowHeight="15720" xr2:uid="{8F692AAD-9E53-416A-BFBA-A251C33399E7}"/>
+    <workbookView xWindow="10570" yWindow="2480" windowWidth="22630" windowHeight="17130" xr2:uid="{8F692AAD-9E53-416A-BFBA-A251C33399E7}"/>
   </bookViews>
   <sheets>
     <sheet name="LSM" sheetId="47" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
@@ -1505,8 +1505,6 @@
     </xf>
     <xf numFmtId="177" fontId="29" fillId="34" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="29" fillId="2" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="19" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="20" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="29" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="184" fontId="29" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="184" fontId="29" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1859,7 +1857,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>14,6,7</a:t>
+            <a:t>4,6,7</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4689,7 +4687,7 @@
       <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="65">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -4710,7 +4708,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="6">
@@ -4722,7 +4720,7 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="66">
         <v>1.0900000000000001</v>
       </c>
       <c r="G3" s="13">
@@ -4736,15 +4734,15 @@
         <v>1</v>
       </c>
       <c r="K3" s="14">
-        <f>MAX($C$3-F3,0)</f>
+        <f t="shared" ref="K3:M10" si="0">MAX($C$3-F3,0)</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="L3" s="33">
-        <f>MAX($C$3-G3,0)</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M3" s="15">
-        <f>MAX($C$3-H3,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4752,7 +4750,7 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <v>0.06</v>
       </c>
       <c r="D4" s="1">
@@ -4761,7 +4759,7 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="66">
         <v>1.1599999999999999</v>
       </c>
       <c r="G4" s="13">
@@ -4775,15 +4773,15 @@
         <v>2</v>
       </c>
       <c r="K4" s="14">
-        <f>MAX($C$3-F4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f>MAX($C$3-G4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="15">
-        <f>MAX($C$3-H4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="5"/>
@@ -4803,7 +4801,7 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="66">
         <v>1.22</v>
       </c>
       <c r="G5" s="13">
@@ -4817,15 +4815,15 @@
         <v>3</v>
       </c>
       <c r="K5" s="14">
-        <f>MAX($C$3-F5,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="33">
-        <f>MAX($C$3-G5,0)</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="M5" s="15">
-        <f>MAX($C$3-H5,0)</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="O5" s="5"/>
@@ -4838,7 +4836,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="66">
         <v>0.93</v>
       </c>
       <c r="G6" s="13">
@@ -4852,15 +4850,15 @@
         <v>4</v>
       </c>
       <c r="K6" s="14">
-        <f>MAX($C$3-F6,0)</f>
+        <f t="shared" si="0"/>
         <v>0.17000000000000004</v>
       </c>
       <c r="L6" s="33">
-        <f>MAX($C$3-G6,0)</f>
+        <f t="shared" si="0"/>
         <v>0.13000000000000012</v>
       </c>
       <c r="M6" s="15">
-        <f>MAX($C$3-H6,0)</f>
+        <f t="shared" si="0"/>
         <v>0.18000000000000005</v>
       </c>
       <c r="O6" s="5"/>
@@ -4873,7 +4871,7 @@
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="66">
         <v>1.1100000000000001</v>
       </c>
       <c r="G7" s="13">
@@ -4887,15 +4885,15 @@
         <v>5</v>
       </c>
       <c r="K7" s="14">
-        <f>MAX($C$3-F7,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="14">
-        <f>MAX($C$3-G7,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="15">
-        <f>MAX($C$3-H7,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" s="5"/>
@@ -4908,7 +4906,7 @@
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="66">
         <v>0.76</v>
       </c>
       <c r="G8" s="13">
@@ -4922,15 +4920,15 @@
         <v>6</v>
       </c>
       <c r="K8" s="14">
-        <f>MAX($C$3-F8,0)</f>
+        <f t="shared" si="0"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="L8" s="33">
-        <f>MAX($C$3-G8,0)</f>
+        <f t="shared" si="0"/>
         <v>0.33000000000000007</v>
       </c>
       <c r="M8" s="15">
-        <f>MAX($C$3-H8,0)</f>
+        <f t="shared" si="0"/>
         <v>0.20000000000000007</v>
       </c>
       <c r="O8" s="5"/>
@@ -4943,7 +4941,7 @@
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="66">
         <v>0.92</v>
       </c>
       <c r="G9" s="13">
@@ -4957,15 +4955,15 @@
         <v>7</v>
       </c>
       <c r="K9" s="14">
-        <f>MAX($C$3-F9,0)</f>
+        <f t="shared" si="0"/>
         <v>0.18000000000000005</v>
       </c>
       <c r="L9" s="33">
-        <f>MAX($C$3-G9,0)</f>
+        <f t="shared" si="0"/>
         <v>0.26000000000000012</v>
       </c>
       <c r="M9" s="15">
-        <f>MAX($C$3-H9,0)</f>
+        <f t="shared" si="0"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="O9" s="5"/>
@@ -4978,7 +4976,7 @@
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="66">
         <v>0.88</v>
       </c>
       <c r="G10" s="13">
@@ -4992,15 +4990,15 @@
         <v>8</v>
       </c>
       <c r="K10" s="14">
-        <f>MAX($C$3-F10,0)</f>
+        <f t="shared" si="0"/>
         <v>0.22000000000000008</v>
       </c>
       <c r="L10" s="14">
-        <f>MAX($C$3-G10,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f>MAX($C$3-H10,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="5"/>
@@ -5099,7 +5097,7 @@
         <v>1.08</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" ref="E16:E20" si="0">D16^2</f>
+        <f t="shared" ref="E16:E20" si="1">D16^2</f>
         <v>1.1664000000000001</v>
       </c>
       <c r="F16" s="16">
@@ -5141,7 +5139,7 @@
         <v>1.07</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1449</v>
       </c>
       <c r="F17" s="16">
@@ -5153,7 +5151,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" ref="H17:H20" si="1">IF(G17&gt;F17,"○","-")</f>
+        <f t="shared" ref="H17:H20" si="2">IF(G17&gt;F17,"○","-")</f>
         <v>-</v>
       </c>
       <c r="I17" s="5"/>
@@ -5183,7 +5181,7 @@
         <v>0.97</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94089999999999996</v>
       </c>
       <c r="F18" s="16">
@@ -5195,7 +5193,7 @@
         <v>0.13000000000000012</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>○</v>
       </c>
       <c r="I18" s="5"/>
@@ -5225,7 +5223,7 @@
         <v>0.77</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59289999999999998</v>
       </c>
       <c r="F19" s="16">
@@ -5237,7 +5235,7 @@
         <v>0.33000000000000007</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>○</v>
       </c>
       <c r="I19" s="5"/>
@@ -5267,7 +5265,7 @@
         <v>0.84</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70559999999999989</v>
       </c>
       <c r="F20" s="16">
@@ -5279,7 +5277,7 @@
         <v>0.26000000000000012</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>○</v>
       </c>
       <c r="I20" s="5"/>
@@ -5368,10 +5366,10 @@
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" ht="13" thickBot="1">
-      <c r="C32" s="72">
+      <c r="C32" s="70">
         <v>2</v>
       </c>
-      <c r="D32" s="69">
+      <c r="D32" s="67">
         <v>1</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -5395,10 +5393,10 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="13" thickBot="1">
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -5417,10 +5415,10 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="61">
+      <c r="K33" s="59">
         <v>0</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="46">
         <v>0</v>
       </c>
       <c r="M33" s="28">
@@ -5431,16 +5429,16 @@
       <c r="B34" s="34">
         <v>1</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="72">
         <f>L15*$C$5</f>
         <v>0</v>
       </c>
-      <c r="D34" s="71">
+      <c r="D34" s="69">
         <f>F3</f>
         <v>1.0900000000000001</v>
       </c>
       <c r="E34" s="16">
-        <f t="shared" ref="E34:E38" si="2">D34^2</f>
+        <f t="shared" ref="E34:E38" si="3">D34^2</f>
         <v>1.1881000000000002</v>
       </c>
       <c r="F34" s="16">
@@ -5459,7 +5457,7 @@
       <c r="J34" s="1">
         <v>2</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="60">
         <v>0</v>
       </c>
       <c r="L34" s="48">
@@ -5473,16 +5471,16 @@
       <c r="B35" s="34">
         <v>4</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="72">
         <f>L18*$C$5</f>
         <v>0.12242938936595245</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="69">
         <f>F6</f>
         <v>0.93</v>
       </c>
       <c r="E35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86490000000000011</v>
       </c>
       <c r="F35" s="16">
@@ -5494,17 +5492,17 @@
         <v>0.17000000000000004</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" ref="H35:H38" si="3">IF(G35&gt;F35,"○","-")</f>
+        <f t="shared" ref="H35:H38" si="4">IF(G35&gt;F35,"○","-")</f>
         <v>○</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="1">
         <v>3</v>
       </c>
-      <c r="K35" s="62">
+      <c r="K35" s="60">
         <v>0</v>
       </c>
-      <c r="L35" s="60">
+      <c r="L35" s="48">
         <v>0</v>
       </c>
       <c r="M35" s="28">
@@ -5515,16 +5513,16 @@
       <c r="B36" s="34">
         <v>6</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="72">
         <f>L20*$C$5</f>
         <v>0.31078229608280217</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="69">
         <f>F8</f>
         <v>0.76</v>
       </c>
       <c r="E36" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5776</v>
       </c>
       <c r="F36" s="16">
@@ -5536,14 +5534,14 @@
         <v>0.34000000000000008</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>○</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="1">
         <v>4</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="60">
         <v>0.17000000000000004</v>
       </c>
       <c r="L36" s="58">
@@ -5557,16 +5555,16 @@
       <c r="B37" s="34">
         <v>7</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="72">
         <f>L21*$C$5</f>
         <v>0.24485877873190479</v>
       </c>
-      <c r="D37" s="71">
-        <f t="shared" ref="D37:D38" si="4">F9</f>
+      <c r="D37" s="69">
+        <f t="shared" ref="D37:D38" si="5">F9</f>
         <v>0.92</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84640000000000004</v>
       </c>
       <c r="F37" s="16">
@@ -5578,14 +5576,14 @@
         <v>0.18000000000000005</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>○</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="1">
         <v>5</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="60">
         <v>0</v>
       </c>
       <c r="L37" s="48">
@@ -5599,16 +5597,16 @@
       <c r="B38" s="34">
         <v>8</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="72">
         <f>L22*$C$5</f>
         <v>0</v>
       </c>
-      <c r="D38" s="71">
-        <f t="shared" si="4"/>
+      <c r="D38" s="69">
+        <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
       <c r="E38" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77439999999999998</v>
       </c>
       <c r="F38" s="16">
@@ -5620,14 +5618,14 @@
         <v>0.22000000000000008</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>○</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="1">
         <v>6</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="60">
         <v>0.34000000000000008</v>
       </c>
       <c r="L38" s="58">
@@ -5653,7 +5651,7 @@
       <c r="J39" s="1">
         <v>7</v>
       </c>
-      <c r="K39" s="62">
+      <c r="K39" s="60">
         <v>0.18000000000000005</v>
       </c>
       <c r="L39" s="58">
@@ -5680,10 +5678,10 @@
       <c r="J40" s="1">
         <v>8</v>
       </c>
-      <c r="K40" s="63">
+      <c r="K40" s="61">
         <v>0.22000000000000008</v>
       </c>
-      <c r="L40" s="64">
+      <c r="L40" s="62">
         <v>0</v>
       </c>
       <c r="M40" s="28">

--- a/LSM-handCALC.xlsx
+++ b/LSM-handCALC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Tex\LecNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDBD3D5-B21A-42E0-855F-D3ED2BC537B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA9FE0-E815-4879-BB11-290C9C8F7954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10570" yWindow="2480" windowWidth="22630" windowHeight="17130" xr2:uid="{8F692AAD-9E53-416A-BFBA-A251C33399E7}"/>
+    <workbookView xWindow="16430" yWindow="940" windowWidth="16950" windowHeight="18990" xr2:uid="{8F692AAD-9E53-416A-BFBA-A251C33399E7}"/>
   </bookViews>
   <sheets>
     <sheet name="LSM" sheetId="47" r:id="rId1"/>
@@ -2296,6 +2296,30 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>３</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
